--- a/Ispitni zadaci/PS_prvi_parcijalni_2022_04_11_Nina_Bijedic.xlsx
+++ b/Ispitni zadaci/PS_prvi_parcijalni_2022_04_11_Nina_Bijedic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D5142-0300-42E3-BEBD-E3B9407795E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F5758-FA9E-4BA5-B063-FF3C3C18CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identifikacija" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="164">
   <si>
     <t>Fakultet informacijskih tehnologija</t>
   </si>
@@ -310,12 +310,6 @@
   </si>
   <si>
     <t>Suma:</t>
-  </si>
-  <si>
-    <t>Prema lijevo dijelimo sa fiksnom kolonom 2008. godine dok prema desno mnozimo sa tom istom.</t>
-  </si>
-  <si>
-    <t>Znamo da je tacno jer su I lancani I bazni iste vrijednosti (dobro smo pretvorili).</t>
   </si>
   <si>
     <r>
@@ -1036,6 +1030,35 @@
   </si>
   <si>
     <t>Poredjenje ova dva uzorka je moguce samo po koeficijentu varijacije, asimetricnosti I zakrivljenosti, ostalo se moze samo opisati ne, I porediti.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provjera tako sto iz frekvencije svaki broj za svaku godinu podijelimo sa brojem iz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bazne godine (2008)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dobijeni indeks:</t>
+  </si>
+  <si>
+    <t>Provjereni indeks:</t>
+  </si>
+  <si>
+    <t>Pretvaranje indeksa nam je tacno</t>
+  </si>
+  <si>
+    <t>Prema lijevo dijelimo sa  kolonom 2008. godine dok prema desno mnozimo sa tom istom NEMA FIKSIRANJA vrijednosti.</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,6 +1351,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13087,7 +13111,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13097,7 +13121,7 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="30"/>
     </row>
@@ -13109,19 +13133,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="31">
         <v>41.333333333333336</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="31">
         <v>1.89130434782609</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -13134,19 +13158,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="31">
         <v>39.5</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="31">
         <v>2</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -13159,21 +13183,21 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="31">
         <f>C12/C8</f>
         <v>0.25799092428445569</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="31">
         <f>E12/E8</f>
         <v>0.6083597901796568</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -13186,19 +13210,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="31">
         <v>39</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="31">
         <v>2</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -13211,19 +13235,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="31">
         <v>10.663624870424169</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="31">
         <v>1.1505935162093528</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -13236,13 +13260,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="31">
         <v>113.71289537712889</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="31">
         <v>1.3238654395430023</v>
@@ -13259,19 +13283,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="31">
         <v>-0.87236728182695478</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="31">
         <v>2.0888284161094566</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -13284,19 +13308,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="31">
         <v>0.24152723339131149</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="31">
         <v>1.1490881579567429</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
@@ -13309,13 +13333,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="31">
         <v>44</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="31">
         <v>6</v>
@@ -13323,19 +13347,19 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="31">
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="31">
         <v>0</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -13350,19 +13374,19 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="31">
         <v>65</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" s="31">
         <v>6</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -13377,19 +13401,19 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="31">
         <v>5704</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="31">
         <v>261</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -13404,19 +13428,19 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="31">
         <v>138</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="31">
         <v>138</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
@@ -13431,25 +13455,25 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="31">
         <v>60</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="31">
         <v>5</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -13460,19 +13484,19 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="31">
         <v>24</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="31">
         <v>0</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
@@ -13487,19 +13511,19 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="32">
         <v>1.7950092899070214</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="32">
         <v>0.19367954852114191</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -13514,7 +13538,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="8">
         <f>C8-C23</f>
@@ -13527,7 +13551,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="8">
         <f>C8+C23</f>
@@ -13540,14 +13564,14 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D29" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -13634,7 +13658,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13701,7 +13725,7 @@
         <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -13780,7 +13804,7 @@
         <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -13999,7 +14023,7 @@
         <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -14147,7 +14171,7 @@
         <v>0.20289855072463769</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -14239,7 +14263,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -14253,14 +14277,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="4" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
@@ -14556,27 +14580,27 @@
         <v>68</v>
       </c>
       <c r="C19" s="14">
-        <f>D16/$F19</f>
-        <v>0.81818181818181823</v>
+        <f t="shared" ref="C19:D19" si="1">D19/D16</f>
+        <v>1.1785714285714286</v>
       </c>
       <c r="D19" s="14">
-        <f>E16/$F19</f>
-        <v>0.62962962962962965</v>
+        <f t="shared" si="1"/>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E19" s="14">
-        <f>F16/$F19</f>
-        <v>1.6470588235294117</v>
+        <f>F19/F16</f>
+        <v>0.60714285714285721</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
       </c>
       <c r="G19" s="14">
-        <f>$F19*G16</f>
+        <f>F19*G16</f>
         <v>0.4642857142857143</v>
       </c>
       <c r="H19" s="14">
-        <f>$F19*H16</f>
-        <v>1.5384615384615385</v>
+        <f>G19*H16</f>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -14584,7 +14608,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -14596,7 +14620,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -14605,6 +14629,86 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="18">
+        <v>2005</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2006</v>
+      </c>
+      <c r="E23" s="18">
+        <v>2007</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2008</v>
+      </c>
+      <c r="G23" s="18">
+        <v>2009</v>
+      </c>
+      <c r="H23" s="18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.60714285714285721</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="14">
+        <f>L34/L37</f>
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="D25" s="14">
+        <f>L35/L37</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E25" s="14">
+        <f>L36/L37</f>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="F25" s="14">
+        <f>L37/L37</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <f>L38/L37</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H25" s="14">
+        <f>L39/L37</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -14723,7 +14827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -14758,26 +14862,26 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <f>100-60</f>
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="16">
         <f>B12/2</f>
         <v>20</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="34">
         <f>PERCENTILE(Podaci!I2:I139,20/100)</f>
@@ -14786,14 +14890,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="33">
         <f>100-C13</f>
         <v>80</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="34">
         <f>PERCENTILE(Podaci!I2:I139,80/100)</f>
@@ -14805,7 +14909,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14815,7 +14919,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="16">
         <f>PERCENTILE(Podaci!C2:C139,32/100)</f>
@@ -14829,14 +14933,14 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <f>100-6</f>
         <v>94</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="35">
         <f>PERCENTILE(Podaci!J2:J139,94/100)</f>
@@ -14845,7 +14949,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -14858,7 +14962,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="26">
         <f>PERCENTILE(Podaci!J2:J139,7/100)</f>
@@ -14867,7 +14971,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -14926,17 +15030,17 @@
         <v>50</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="M6" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <f>MIN(Podaci!F2:F139)</f>
@@ -14945,7 +15049,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <f>MAX(Podaci!F2:F139)</f>
@@ -14962,13 +15066,13 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>58</v>
@@ -14977,22 +15081,22 @@
         <v>59</v>
       </c>
       <c r="G9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="J9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>113</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="12">
         <v>21</v>
@@ -15028,7 +15132,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="12">
         <f>D10+1</f>
@@ -15064,7 +15168,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:C14" si="4">D11+1</f>
@@ -15100,7 +15204,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="4"/>
@@ -15136,7 +15240,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="4"/>
@@ -15210,7 +15314,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="14">
         <f>G16/F16</f>
@@ -15218,7 +15322,7 @@
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -15227,7 +15331,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="14">
         <f>H16/F16</f>
@@ -15235,7 +15339,7 @@
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
@@ -15244,7 +15348,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="14">
         <f>SQRT(B20)</f>
@@ -15254,7 +15358,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" s="14">
         <f>B21/B19</f>
@@ -15263,14 +15367,14 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" s="14">
         <f>I16/F16/POWER(B21,3)</f>
         <v>0.35585651195854717</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -15279,19 +15383,19 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="14">
         <f>J16/F16/POWER(B21,4)</f>
         <v>2.1926433050316541</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -15300,24 +15404,24 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="14">
         <f>_xlfn.CONFIDENCE.NORM(1-0.95,B21,F16)</f>
         <v>1.7798933746860914</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -15328,28 +15432,28 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="14">
         <f>B19+B25</f>
         <v>43.258154244251308</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="14">
         <f>B19-B25</f>
         <v>39.698367494879129</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="8"/>
@@ -15365,12 +15469,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15557,20 +15663,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD2B6E0-C177-40EA-AA4D-A279F224AB38}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60ED7929-7784-42C7-A80D-7555B1C5688B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
+    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15595,12 +15702,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60ED7929-7784-42C7-A80D-7555B1C5688B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD2B6E0-C177-40EA-AA4D-A279F224AB38}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
-    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Ispitni zadaci/PS_prvi_parcijalni_2022_04_11_Nina_Bijedic.xlsx
+++ b/Ispitni zadaci/PS_prvi_parcijalni_2022_04_11_Nina_Bijedic.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F5758-FA9E-4BA5-B063-FF3C3C18CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677DB38-841E-4254-A173-0520F1A4FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identifikacija" sheetId="9" r:id="rId1"/>
@@ -1029,9 +1029,6 @@
     <t>Uzorak fibroze ima vecu zakrivljenost (simetricniji  je) od uzorka starosti</t>
   </si>
   <si>
-    <t>Poredjenje ova dva uzorka je moguce samo po koeficijentu varijacije, asimetricnosti I zakrivljenosti, ostalo se moze samo opisati ne, I porediti.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Provjera tako sto iz frekvencije svaki broj za svaku godinu podijelimo sa brojem iz </t>
     </r>
@@ -1059,6 +1056,9 @@
   </si>
   <si>
     <t>Prema lijevo dijelimo sa  kolonom 2008. godine dok prema desno mnozimo sa tom istom NEMA FIKSIRANJA vrijednosti.</t>
+  </si>
+  <si>
+    <t>Poredjenje ova dva uzorka je moguce samo po koeficijentu varijacije, asimetricnosti I spljostenosti, ostalo se moze samo opisati ne, I porediti.</t>
   </si>
 </sst>
 </file>
@@ -5705,78 +5705,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B46C0FDC-FE07-451B-A31D-407EB3C2D717}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A11:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="11"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of piD" fld="0" subtotal="count" baseField="3" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A65B6A06-72DF-49D7-B33D-7768A1061F94}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A37:I45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
@@ -5896,7 +5824,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{540D70E9-D1C3-4702-9684-119BD15ACBFF}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A26:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
@@ -6016,7 +5944,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52415183-265D-47A1-ADB1-686E51BA4359}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A18:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
@@ -6123,6 +6051,78 @@
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B46C0FDC-FE07-451B-A31D-407EB3C2D717}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A11:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="11"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of piD" fld="0" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13093,8 +13093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF050E2-C6D6-4981-9584-A5DD82C76EE6}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13571,7 +13571,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="42" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -14277,7 +14277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -14608,7 +14608,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -14620,7 +14620,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="14">
         <v>1.1785714285714286</v>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="14">
         <f>L34/L37</f>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -15469,17 +15469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422927A4B14B16408CBADB6036948F55" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d789af9294aa31a0283185d196e458ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a74ba223-5325-45eb-8bb6-4a812c960ff8" xmlns:ns3="503f19e8-fb23-4d62-82a3-60e3d6d0a640" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75f3ce3d37ca6185cb11faa8fc51dec8" ns2:_="" ns3:_="">
     <xsd:import namespace="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
@@ -15662,6 +15651,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15672,17 +15672,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60ED7929-7784-42C7-A80D-7555B1C5688B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
-    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC93469-921C-41C1-9F4A-7637469E53FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15701,6 +15690,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60ED7929-7784-42C7-A80D-7555B1C5688B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
+    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD2B6E0-C177-40EA-AA4D-A279F224AB38}">
   <ds:schemaRefs>
